--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.44785365915126</v>
+        <v>18.76479233333333</v>
       </c>
       <c r="H2">
-        <v>8.44785365915126</v>
+        <v>56.294377</v>
       </c>
       <c r="I2">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758657</v>
       </c>
       <c r="J2">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758656</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>11.91283328312143</v>
+        <v>56.32519504394211</v>
       </c>
       <c r="R2">
-        <v>11.91283328312143</v>
+        <v>506.926755395479</v>
       </c>
       <c r="S2">
-        <v>0.001275326814847769</v>
+        <v>0.005076143352007488</v>
       </c>
       <c r="T2">
-        <v>0.001275326814847769</v>
+        <v>0.005076143352007488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.44785365915126</v>
+        <v>18.76479233333333</v>
       </c>
       <c r="H3">
-        <v>8.44785365915126</v>
+        <v>56.294377</v>
       </c>
       <c r="I3">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758657</v>
       </c>
       <c r="J3">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758656</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>92.97574939105279</v>
+        <v>207.4312998691739</v>
       </c>
       <c r="R3">
-        <v>92.97574939105279</v>
+        <v>1866.881698822565</v>
       </c>
       <c r="S3">
-        <v>0.009953506736048827</v>
+        <v>0.01869413879539554</v>
       </c>
       <c r="T3">
-        <v>0.009953506736048827</v>
+        <v>0.01869413879539554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.44785365915126</v>
+        <v>18.76479233333333</v>
       </c>
       <c r="H4">
-        <v>8.44785365915126</v>
+        <v>56.294377</v>
       </c>
       <c r="I4">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758657</v>
       </c>
       <c r="J4">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758656</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>133.435464280521</v>
+        <v>309.5075856138168</v>
       </c>
       <c r="R4">
-        <v>133.435464280521</v>
+        <v>2785.568270524352</v>
       </c>
       <c r="S4">
-        <v>0.01428491624152242</v>
+        <v>0.02789346529352925</v>
       </c>
       <c r="T4">
-        <v>0.01428491624152242</v>
+        <v>0.02789346529352925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.44785365915126</v>
+        <v>18.76479233333333</v>
       </c>
       <c r="H5">
-        <v>8.44785365915126</v>
+        <v>56.294377</v>
       </c>
       <c r="I5">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758657</v>
       </c>
       <c r="J5">
-        <v>0.04984754813279988</v>
+        <v>0.09818846546758656</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>227.302115347317</v>
+        <v>516.2410979152834</v>
       </c>
       <c r="R5">
-        <v>227.302115347317</v>
+        <v>4646.169881237551</v>
       </c>
       <c r="S5">
-        <v>0.02433379834038086</v>
+        <v>0.0465247180266543</v>
       </c>
       <c r="T5">
-        <v>0.02433379834038086</v>
+        <v>0.04652471802665429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.21207772835</v>
+        <v>72.11798333333333</v>
       </c>
       <c r="H6">
-        <v>71.21207772835</v>
+        <v>216.35395</v>
       </c>
       <c r="I6">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="J6">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N6">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q6">
-        <v>100.4204906891994</v>
+        <v>216.4723917679611</v>
       </c>
       <c r="R6">
-        <v>100.4204906891994</v>
+        <v>1948.25152591165</v>
       </c>
       <c r="S6">
-        <v>0.01075050254565048</v>
+        <v>0.0195089407415071</v>
       </c>
       <c r="T6">
-        <v>0.01075050254565048</v>
+        <v>0.0195089407415071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.21207772835</v>
+        <v>72.11798333333333</v>
       </c>
       <c r="H7">
-        <v>71.21207772835</v>
+        <v>216.35395</v>
       </c>
       <c r="I7">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="J7">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N7">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q7">
-        <v>783.7489331168694</v>
+        <v>797.2125009986389</v>
       </c>
       <c r="R7">
-        <v>783.7489331168694</v>
+        <v>7174.912508987751</v>
       </c>
       <c r="S7">
-        <v>0.08390413991006292</v>
+        <v>0.07184644338868991</v>
       </c>
       <c r="T7">
-        <v>0.08390413991006292</v>
+        <v>0.07184644338868991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.21207772835</v>
+        <v>72.11798333333333</v>
       </c>
       <c r="H8">
-        <v>71.21207772835</v>
+        <v>216.35395</v>
       </c>
       <c r="I8">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="J8">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N8">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q8">
-        <v>1124.80838772219</v>
+        <v>1189.518248021689</v>
       </c>
       <c r="R8">
-        <v>1124.80838772219</v>
+        <v>10705.6642321952</v>
       </c>
       <c r="S8">
-        <v>0.1204162153817975</v>
+        <v>0.1072018506474095</v>
       </c>
       <c r="T8">
-        <v>0.1204162153817975</v>
+        <v>0.1072018506474095</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.21207772835</v>
+        <v>72.11798333333333</v>
       </c>
       <c r="H9">
-        <v>71.21207772835</v>
+        <v>216.35395</v>
       </c>
       <c r="I9">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="J9">
-        <v>0.4201951898581123</v>
+        <v>0.3773638413007209</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N9">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q9">
-        <v>1916.067270933024</v>
+        <v>1984.048969692094</v>
       </c>
       <c r="R9">
-        <v>1916.067270933024</v>
+        <v>17856.44072722885</v>
       </c>
       <c r="S9">
-        <v>0.2051243320206014</v>
+        <v>0.1788066065231144</v>
       </c>
       <c r="T9">
-        <v>0.2051243320206014</v>
+        <v>0.1788066065231144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.24071041214179</v>
+        <v>83.31930033333333</v>
       </c>
       <c r="H10">
-        <v>73.24071041214179</v>
+        <v>249.957901</v>
       </c>
       <c r="I10">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707099</v>
       </c>
       <c r="J10">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N10">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q10">
-        <v>103.2811892677695</v>
+        <v>250.0947390642474</v>
       </c>
       <c r="R10">
-        <v>103.2811892677695</v>
+        <v>2250.852651578227</v>
       </c>
       <c r="S10">
-        <v>0.01105675425922198</v>
+        <v>0.02253905638644684</v>
       </c>
       <c r="T10">
-        <v>0.01105675425922198</v>
+        <v>0.02253905638644684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.24071041214179</v>
+        <v>83.31930033333333</v>
       </c>
       <c r="H11">
-        <v>73.24071041214179</v>
+        <v>249.957901</v>
       </c>
       <c r="I11">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707099</v>
       </c>
       <c r="J11">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N11">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q11">
-        <v>806.0757455386738</v>
+        <v>921.0350141542607</v>
       </c>
       <c r="R11">
-        <v>806.0757455386738</v>
+        <v>8289.315127388345</v>
       </c>
       <c r="S11">
-        <v>0.08629433390463068</v>
+        <v>0.08300558498586348</v>
       </c>
       <c r="T11">
-        <v>0.08629433390463068</v>
+        <v>0.08300558498586348</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.24071041214179</v>
+        <v>83.31930033333333</v>
       </c>
       <c r="H12">
-        <v>73.24071041214179</v>
+        <v>249.957901</v>
       </c>
       <c r="I12">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707099</v>
       </c>
       <c r="J12">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N12">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q12">
-        <v>1156.851028958425</v>
+        <v>1374.273427763619</v>
       </c>
       <c r="R12">
-        <v>1156.851028958425</v>
+        <v>12368.46084987257</v>
       </c>
       <c r="S12">
-        <v>0.1238465361640933</v>
+        <v>0.1238523704843011</v>
       </c>
       <c r="T12">
-        <v>0.1238465361640933</v>
+        <v>0.1238523704843011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.24071041214179</v>
+        <v>83.31930033333333</v>
       </c>
       <c r="H13">
-        <v>73.24071041214179</v>
+        <v>249.957901</v>
       </c>
       <c r="I13">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707099</v>
       </c>
       <c r="J13">
-        <v>0.4321653741710876</v>
+        <v>0.4359757410707098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N13">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q13">
-        <v>1970.650662039601</v>
+        <v>2292.210130415685</v>
       </c>
       <c r="R13">
-        <v>1970.650662039601</v>
+        <v>20629.89117374116</v>
       </c>
       <c r="S13">
-        <v>0.2109677498431416</v>
+        <v>0.2065787292140984</v>
       </c>
       <c r="T13">
-        <v>0.2109677498431416</v>
+        <v>0.2065787292140984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.5731633440956</v>
+        <v>16.90787</v>
       </c>
       <c r="H14">
-        <v>16.5731633440956</v>
+        <v>50.72361</v>
       </c>
       <c r="I14">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="J14">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N14">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q14">
-        <v>23.37082765138546</v>
+        <v>50.75137835849667</v>
       </c>
       <c r="R14">
-        <v>23.37082765138546</v>
+        <v>456.76240522647</v>
       </c>
       <c r="S14">
-        <v>0.002501960908932313</v>
+        <v>0.004573819436554392</v>
       </c>
       <c r="T14">
-        <v>0.002501960908932313</v>
+        <v>0.004573819436554393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.5731633440956</v>
+        <v>16.90787</v>
       </c>
       <c r="H15">
-        <v>16.5731633440956</v>
+        <v>50.72361</v>
       </c>
       <c r="I15">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="J15">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N15">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q15">
-        <v>182.4016305050941</v>
+        <v>186.9043573633834</v>
       </c>
       <c r="R15">
-        <v>182.4016305050941</v>
+        <v>1682.13921627045</v>
       </c>
       <c r="S15">
-        <v>0.01952698278626034</v>
+        <v>0.01684420817985983</v>
       </c>
       <c r="T15">
-        <v>0.01952698278626034</v>
+        <v>0.01684420817985983</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.5731633440956</v>
+        <v>16.90787</v>
       </c>
       <c r="H16">
-        <v>16.5731633440956</v>
+        <v>50.72361</v>
       </c>
       <c r="I16">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="J16">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N16">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q16">
-        <v>261.7762847987696</v>
+        <v>278.8793997083733</v>
       </c>
       <c r="R16">
-        <v>261.7762847987696</v>
+        <v>2509.91459737536</v>
       </c>
       <c r="S16">
-        <v>0.02802442605892166</v>
+        <v>0.02513318968069428</v>
       </c>
       <c r="T16">
-        <v>0.02802442605892166</v>
+        <v>0.02513318968069428</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.5731633440956</v>
+        <v>16.90787</v>
       </c>
       <c r="H17">
-        <v>16.5731633440956</v>
+        <v>50.72361</v>
       </c>
       <c r="I17">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="J17">
-        <v>0.09779188783800026</v>
+        <v>0.08847195216098278</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N17">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q17">
-        <v>445.925703510354</v>
+        <v>465.1550210179366</v>
       </c>
       <c r="R17">
-        <v>445.925703510354</v>
+        <v>4186.39518916143</v>
       </c>
       <c r="S17">
-        <v>0.04773851808388594</v>
+        <v>0.04192073486387427</v>
       </c>
       <c r="T17">
-        <v>0.04773851808388594</v>
+        <v>0.04192073486387428</v>
       </c>
     </row>
   </sheetData>
